--- a/tests/pruebas.xlsx
+++ b/tests/pruebas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\UNIANDES\6. SEMESTRE\INFRA-COMP\Caso-3\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEDE6228-4F25-4918-8CBE-DAF5D8793870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A90B958-FCD2-402F-8091-E4476902C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82572735-DF81-4965-A156-4899B9459475}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82572735-DF81-4965-A156-4899B9459475}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Thread" sheetId="1" r:id="rId1"/>
+    <sheet name="2 Thread" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="32">
   <si>
     <t>Prueba 1</t>
   </si>
@@ -125,10 +126,13 @@
     <t>ajiaco</t>
   </si>
   <si>
-    <t>aaaaaaa</t>
+    <t>zzzzzzz</t>
   </si>
   <si>
-    <t>zzzzzzz</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>alibaba</t>
   </si>
 </sst>
 </file>
@@ -258,17 +262,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -277,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,67 +602,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B7EB5-0620-40C4-A094-51F985A19C0E}">
   <dimension ref="E5:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M11"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="15" width="11.109375" customWidth="1"/>
+    <col min="5" max="15" width="12.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
@@ -699,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="1" t="s">
@@ -713,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.3">
@@ -746,78 +752,86 @@
       </c>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>26</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
@@ -907,78 +921,86 @@
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>33</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>38</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
@@ -1068,78 +1090,86 @@
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O33" s="3"/>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>90</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>36</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>123</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="5"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="5"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O40" s="5"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
@@ -1229,78 +1259,86 @@
       </c>
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="3"/>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>522</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>250</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1">
+        <v>767</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1">
+        <v>325</v>
+      </c>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="4" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="5"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="4" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O51" s="5"/>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
@@ -1316,7 +1354,7 @@
       <c r="I52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="8"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1383,7 @@
       <c r="I53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="8"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1412,7 @@
       <c r="I54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="8"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1390,78 +1428,86 @@
       </c>
     </row>
     <row r="55" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="3"/>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10228</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>7771</v>
+      </c>
       <c r="J55" s="6"/>
-      <c r="K55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" s="3"/>
+      <c r="K55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>17019</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" s="1">
+        <v>12510</v>
+      </c>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="5"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="4"/>
     </row>
     <row r="61" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="5"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="4" t="s">
+      <c r="N62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="5"/>
+      <c r="O62" s="4"/>
     </row>
     <row r="63" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
@@ -1551,78 +1597,86 @@
       </c>
     </row>
     <row r="66" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="3"/>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>321528</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1">
+        <v>13876</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="1">
+        <v>520084</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c r="N66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="1">
+        <v>22301</v>
+      </c>
     </row>
     <row r="71" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="4"/>
     </row>
     <row r="72" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="5"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="4"/>
     </row>
     <row r="73" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="4" t="s">
+      <c r="N73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O73" s="5"/>
+      <c r="O73" s="4"/>
     </row>
     <row r="74" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E74" s="1" t="s">
@@ -1658,28 +1712,28 @@
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="5:15" x14ac:dyDescent="0.3">
@@ -1712,98 +1766,1379 @@
       </c>
     </row>
     <row r="77" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O77" s="3"/>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7922936</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1">
+        <v>483294</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="5">
+        <v>12059400</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" s="1">
+        <v>745031</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="M51:M55"/>
-    <mergeCell ref="M40:M44"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="M7:M11"/>
     <mergeCell ref="E71:O71"/>
     <mergeCell ref="E72:I72"/>
-    <mergeCell ref="J72:J77"/>
     <mergeCell ref="K72:O72"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:G77"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G73:G77"/>
     <mergeCell ref="M73:M77"/>
+    <mergeCell ref="J72:J77"/>
     <mergeCell ref="E60:O60"/>
     <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:J66"/>
     <mergeCell ref="K61:O61"/>
     <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:G66"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="N62:O62"/>
+    <mergeCell ref="G62:G66"/>
     <mergeCell ref="M62:M66"/>
-    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="J61:J66"/>
     <mergeCell ref="E49:O49"/>
     <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:J55"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:G55"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="M51:M55"/>
+    <mergeCell ref="J50:J55"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="E38:O38"/>
     <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:J44"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:G44"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G18:G22"/>
     <mergeCell ref="J17:J22"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="E16:O16"/>
     <mergeCell ref="E27:O27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:J33"/>
     <mergeCell ref="K28:O28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="G18:G22"/>
     <mergeCell ref="K17:O17"/>
+    <mergeCell ref="M18:M22"/>
     <mergeCell ref="E5:O5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="J6:J11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="G7:G11"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="J6:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5266B6A6-48A4-4841-BFA7-70691E33FD5E}">
+  <dimension ref="E5:O77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="15" width="12.21875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>19</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>34</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>40</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>110</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>26</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>127</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>561</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>285</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1">
+        <v>866</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>17287</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>13828</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>24939</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" s="1">
+        <v>19486</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63" s="8"/>
+      <c r="N63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" s="8"/>
+      <c r="N64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="8"/>
+      <c r="N65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>265258</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5192</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="1">
+        <v>430633</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c r="N66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="1">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="6"/>
+      <c r="N76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1">
+        <v>8604955</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1">
+        <v>405675</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="1">
+        <v>11236750</v>
+      </c>
+      <c r="M77" s="6"/>
+      <c r="N77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" s="1">
+        <v>753620</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="E71:O71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="J72:J77"/>
+    <mergeCell ref="M73:M77"/>
+    <mergeCell ref="E60:O60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="J61:J66"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="M62:M66"/>
+    <mergeCell ref="E49:O49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="M51:M55"/>
+    <mergeCell ref="J50:J55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="E38:O38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="E27:O27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="E16:O16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
